--- a/target/test-classes/Excel/MainProjectData.xlsx
+++ b/target/test-classes/Excel/MainProjectData.xlsx
@@ -331,10 +331,10 @@
     <t>Ram@1234</t>
   </si>
   <si>
-    <t>RoopaArun01</t>
-  </si>
-  <si>
-    <t>DummyUser01@gmail.com</t>
+    <t>RoopaArun03</t>
+  </si>
+  <si>
+    <t>DummyUser03@gmail.com</t>
   </si>
 </sst>
 </file>
